--- a/EXCEL/my pratice/interview question.xlsx
+++ b/EXCEL/my pratice/interview question.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analyst\EXCEL\my pratice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F182881F-9291-4323-A53B-FF750F711FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28AE399-9CB7-4E92-A59D-4F562FAC2AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="40" activeTab="48" xr2:uid="{64E35E64-D1B2-4493-A6C7-E179FBC5076B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="44" activeTab="52" xr2:uid="{64E35E64-D1B2-4493-A6C7-E179FBC5076B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,10 @@
     <sheet name="Sheet47" sheetId="47" r:id="rId47"/>
     <sheet name="Sheet48" sheetId="48" r:id="rId48"/>
     <sheet name="Sheet49" sheetId="49" r:id="rId49"/>
+    <sheet name="dataset1" sheetId="50" r:id="rId50"/>
+    <sheet name="dataset2" sheetId="51" r:id="rId51"/>
+    <sheet name="dataset3" sheetId="52" r:id="rId52"/>
+    <sheet name="Sheet53" sheetId="53" r:id="rId53"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet11!$I$1:$M$1</definedName>
@@ -154,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="2687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4890" uniqueCount="2692">
   <si>
     <t>Name</t>
   </si>
@@ -8314,19 +8318,35 @@
   <si>
     <t xml:space="preserve"> =TRIM(MID(SUBSTITUTE(B3, " ", REPT(" ", LEN(B3))),(3-1)*LEN(B3)+1, LEN(B3)))</t>
   </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>dataset3</t>
+  </si>
+  <si>
+    <t>Number of pieces =</t>
+  </si>
+  <si>
+    <t>Total cost =</t>
+  </si>
+  <si>
+    <t>Cost per piece =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="m/d/yy"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="170" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8547,6 +8567,13 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="46">
@@ -9218,7 +9245,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9678,6 +9705,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9744,12 +9776,21 @@
     <xf numFmtId="0" fontId="22" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="blue" xfId="1" xr:uid="{F6828C7E-978E-4608-88ED-A2AFC42CA376}"/>
@@ -14027,6 +14068,320 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing48.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA244D7-B1E5-449A-AF1C-077E51492089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="2665094"/>
+          <a:ext cx="6096000" cy="1213485"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1002">
+          <a:schemeClr val="dk2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C81F3AF-BD9E-40F5-B9BD-D8C0D653F7A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695699" y="2762250"/>
+          <a:ext cx="5663565" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Task 3 is based on theree different sheets i.e dataset1 to dataset3. In every sheet, names and their respective ages are available. There are drop downs in cell E9 and cell F8. suppose if I select Dataset2 and Name2, it has to pick name2 age from Dataset2 sheet</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BAA8F1-03BC-4A37-96A3-91F19D720674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4446270" y="1299211"/>
+          <a:ext cx="3457575" cy="567690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Apply the formula</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> in f9 to returns the respective value </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing49.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>461010</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>32385</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EFAF52A-427D-47D6-8E14-770AD34244FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4888230" y="487679"/>
+          <a:ext cx="5263515" cy="539115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>If a 48-piece set of stainless steel flatware costs $124.80, what is the cost per piece?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -25420,10 +25775,10 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="228" t="s">
+      <c r="I25" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="229"/>
+      <c r="J25" s="234"/>
       <c r="K25" s="111">
         <f>SUMPRODUCT(E3:E53)</f>
         <v>464.62526487493523</v>
@@ -25900,11 +26255,11 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="225" t="s">
+      <c r="B54" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="226"/>
-      <c r="D54" s="227"/>
+      <c r="C54" s="231"/>
+      <c r="D54" s="232"/>
       <c r="E54" s="125">
         <v>464.62526487493523</v>
       </c>
@@ -26162,12 +26517,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="235" t="s">
         <v>2345</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="132"/>
@@ -26263,24 +26618,24 @@
       <c r="H3" s="131"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="232" t="s">
+      <c r="B4" s="237" t="s">
         <v>2350</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="232"/>
-      <c r="C5" s="232"/>
-      <c r="D5" s="232"/>
-      <c r="E5" s="232"/>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="232"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="237"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="131"/>
@@ -26431,97 +26786,97 @@
       <c r="F2"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="233" t="s">
+      <c r="B4" s="238" t="s">
         <v>2357</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="233"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="233"/>
-      <c r="F6" s="233"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="233"/>
-      <c r="C7" s="233"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="233"/>
-      <c r="F7" s="233"/>
+      <c r="B7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="238"/>
+      <c r="F7" s="238"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="233"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="233"/>
-      <c r="F8" s="233"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="233"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="233"/>
+      <c r="B9" s="238"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
+      <c r="B10" s="238"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="238"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="233"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="233"/>
+      <c r="B11" s="238"/>
+      <c r="C11" s="238"/>
+      <c r="D11" s="238"/>
+      <c r="E11" s="238"/>
+      <c r="F11" s="238"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="233"/>
-      <c r="C12" s="233"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="233"/>
-      <c r="F12" s="233"/>
+      <c r="B12" s="238"/>
+      <c r="C12" s="238"/>
+      <c r="D12" s="238"/>
+      <c r="E12" s="238"/>
+      <c r="F12" s="238"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="233"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="233"/>
+      <c r="B13" s="238"/>
+      <c r="C13" s="238"/>
+      <c r="D13" s="238"/>
+      <c r="E13" s="238"/>
+      <c r="F13" s="238"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="233"/>
-      <c r="C14" s="233"/>
-      <c r="D14" s="233"/>
-      <c r="E14" s="233"/>
-      <c r="F14" s="233"/>
+      <c r="B14" s="238"/>
+      <c r="C14" s="238"/>
+      <c r="D14" s="238"/>
+      <c r="E14" s="238"/>
+      <c r="F14" s="238"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="233"/>
-      <c r="C15" s="233"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="233"/>
+      <c r="B15" s="238"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="238"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="233"/>
-      <c r="C16" s="233"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="233"/>
+      <c r="B16" s="238"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
+      <c r="F16" s="238"/>
     </row>
     <row r="22" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F22" s="136" t="s">
@@ -28849,8 +29204,8 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="239"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
@@ -29737,10 +30092,10 @@
       <c r="D3" s="148" t="s">
         <v>2423</v>
       </c>
-      <c r="F3" s="235" t="s">
+      <c r="F3" s="240" t="s">
         <v>2424</v>
       </c>
-      <c r="G3" s="236"/>
+      <c r="G3" s="241"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="39">
@@ -30538,10 +30893,10 @@
       <c r="B3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="237" t="s">
+      <c r="C3" s="242" t="s">
         <v>2437</v>
       </c>
-      <c r="D3" s="237"/>
+      <c r="D3" s="242"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -32048,27 +32403,27 @@
       </c>
       <c r="C5" s="164" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,91))</f>
-        <v>R</v>
+        <v>C</v>
       </c>
       <c r="D5" s="164" t="str">
         <f t="shared" ref="D5:H5" ca="1" si="2">CHAR(RANDBETWEEN(65,91))</f>
-        <v>O</v>
+        <v>L</v>
       </c>
       <c r="E5" s="164" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>G</v>
+        <v>P</v>
       </c>
       <c r="F5" s="164" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Q</v>
+        <v>H</v>
       </c>
       <c r="G5" s="164" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>U</v>
       </c>
       <c r="H5" s="164" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>O</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -32082,23 +32437,23 @@
       </c>
       <c r="C6" s="164" t="str">
         <f t="shared" ref="C6:H18" ca="1" si="3">CHAR(RANDBETWEEN(65,91))</f>
-        <v>Y</v>
+        <v>B</v>
       </c>
       <c r="D6" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>Z</v>
       </c>
       <c r="E6" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>P</v>
       </c>
       <c r="F6" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Z</v>
+        <v>A</v>
       </c>
       <c r="G6" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Y</v>
+        <v>Q</v>
       </c>
       <c r="H6" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -32116,27 +32471,27 @@
       </c>
       <c r="C7" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>[</v>
+        <v>N</v>
       </c>
       <c r="D7" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>J</v>
+        <v>L</v>
       </c>
       <c r="E7" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>U</v>
+        <v>Q</v>
       </c>
       <c r="F7" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>J</v>
+        <v>G</v>
       </c>
       <c r="G7" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="H7" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B</v>
+        <v>D</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -32150,27 +32505,27 @@
       </c>
       <c r="C8" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A</v>
+        <v>V</v>
       </c>
       <c r="D8" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>G</v>
+        <v>Y</v>
       </c>
       <c r="E8" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>H</v>
+        <v>S</v>
       </c>
       <c r="F8" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="G8" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L</v>
+        <v>S</v>
       </c>
       <c r="H8" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v>P</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -32184,27 +32539,27 @@
       </c>
       <c r="C9" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>R</v>
       </c>
       <c r="D9" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>N</v>
       </c>
       <c r="E9" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>Q</v>
       </c>
       <c r="F9" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="G9" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>O</v>
+        <v>S</v>
       </c>
       <c r="H9" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>P</v>
+        <v>V</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -32218,27 +32573,27 @@
       </c>
       <c r="C10" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C</v>
+        <v>V</v>
       </c>
       <c r="D10" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>G</v>
+        <v>[</v>
       </c>
       <c r="E10" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>[</v>
+        <v>D</v>
       </c>
       <c r="F10" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>E</v>
+        <v>Q</v>
       </c>
       <c r="G10" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="H10" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L</v>
+        <v>S</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -32252,27 +32607,27 @@
       </c>
       <c r="C11" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>I</v>
+        <v>R</v>
       </c>
       <c r="D11" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>J</v>
       </c>
       <c r="E11" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>U</v>
+        <v>G</v>
       </c>
       <c r="F11" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>V</v>
+        <v>[</v>
       </c>
       <c r="G11" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Y</v>
+        <v>E</v>
       </c>
       <c r="H11" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>I</v>
+        <v>V</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -32286,27 +32641,27 @@
       </c>
       <c r="C12" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>H</v>
+        <v>K</v>
       </c>
       <c r="D12" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A</v>
+        <v>I</v>
       </c>
       <c r="E12" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Y</v>
+        <v>A</v>
       </c>
       <c r="F12" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>K</v>
       </c>
       <c r="G12" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>M</v>
       </c>
       <c r="H12" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>K</v>
+        <v>W</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -32320,27 +32675,27 @@
       </c>
       <c r="C13" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>J</v>
       </c>
       <c r="D13" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>V</v>
       </c>
       <c r="E13" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>A</v>
       </c>
       <c r="F13" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B</v>
+        <v>W</v>
       </c>
       <c r="G13" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>V</v>
+        <v>O</v>
       </c>
       <c r="H13" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>I</v>
+        <v>R</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -32354,27 +32709,27 @@
       </c>
       <c r="C14" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>O</v>
+        <v>Q</v>
       </c>
       <c r="D14" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>K</v>
+        <v>Z</v>
       </c>
       <c r="E14" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v>D</v>
       </c>
       <c r="F14" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="G14" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>H</v>
+        <v>I</v>
       </c>
       <c r="H14" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>U</v>
+        <v>J</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -32388,27 +32743,27 @@
       </c>
       <c r="C15" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>I</v>
+        <v>O</v>
       </c>
       <c r="D15" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="E15" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>P</v>
+        <v>F</v>
       </c>
       <c r="F15" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>I</v>
       </c>
       <c r="G15" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>H</v>
       </c>
       <c r="H15" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Z</v>
+        <v>Q</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -32422,27 +32777,27 @@
       </c>
       <c r="C16" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Q</v>
+        <v>B</v>
       </c>
       <c r="D16" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>U</v>
+        <v>X</v>
       </c>
       <c r="E16" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>[</v>
       </c>
       <c r="F16" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>K</v>
+        <v>X</v>
       </c>
       <c r="G16" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Y</v>
+        <v>J</v>
       </c>
       <c r="H16" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>[</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -32456,27 +32811,27 @@
       </c>
       <c r="C17" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Y</v>
+        <v>P</v>
       </c>
       <c r="D17" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>R</v>
       </c>
       <c r="E17" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Q</v>
+        <v>J</v>
       </c>
       <c r="F17" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>K</v>
+        <v>R</v>
       </c>
       <c r="G17" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>E</v>
+        <v>T</v>
       </c>
       <c r="H17" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Q</v>
+        <v>A</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -32490,27 +32845,27 @@
       </c>
       <c r="C18" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="D18" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="E18" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>X</v>
+        <v>D</v>
       </c>
       <c r="F18" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Y</v>
+        <v>G</v>
       </c>
       <c r="G18" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>L</v>
+        <v>J</v>
       </c>
       <c r="H18" s="164" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>[</v>
+        <v>O</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -35330,7 +35685,7 @@
       </c>
       <c r="B25" s="40">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C25" s="40">
         <v>1001</v>
@@ -35374,7 +35729,7 @@
       </c>
       <c r="B26" s="40">
         <f t="shared" ref="B26:B34" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C26" s="177">
         <v>1002</v>
@@ -35414,7 +35769,7 @@
       </c>
       <c r="B27" s="40">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C27" s="40">
         <v>1003</v>
@@ -35451,7 +35806,7 @@
       </c>
       <c r="B28" s="40">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C28" s="177">
         <v>1004</v>
@@ -35488,7 +35843,7 @@
       </c>
       <c r="B29" s="40">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="40">
         <v>1005</v>
@@ -35527,7 +35882,7 @@
       </c>
       <c r="B30" s="40">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C30" s="40">
         <v>1006</v>
@@ -35567,7 +35922,7 @@
       </c>
       <c r="B31" s="40">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C31" s="40">
         <v>1007</v>
@@ -35604,7 +35959,7 @@
       </c>
       <c r="B32" s="40">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C32" s="40">
         <v>1008</v>
@@ -35641,7 +35996,7 @@
       </c>
       <c r="B33" s="40">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C33" s="40">
         <v>1009</v>
@@ -35666,7 +36021,7 @@
       </c>
       <c r="B34" s="40">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C34" s="40">
         <v>1010</v>
@@ -36789,10 +37144,10 @@
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="217"/>
+      <c r="C3" s="222"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -37571,10 +37926,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="243" t="s">
         <v>1668</v>
       </c>
-      <c r="C4" s="238"/>
+      <c r="C4" s="243"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="194" t="s">
@@ -39352,184 +39707,184 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="239" t="s">
+      <c r="B3" s="217" t="s">
         <v>2647</v>
       </c>
-      <c r="C3" s="239" t="s">
+      <c r="C3" s="217" t="s">
         <v>2648</v>
       </c>
-      <c r="G3" s="239" t="s">
+      <c r="G3" s="217" t="s">
         <v>2647</v>
       </c>
-      <c r="H3" s="239" t="s">
+      <c r="H3" s="217" t="s">
         <v>2648</v>
       </c>
-      <c r="I3" s="239" t="s">
+      <c r="I3" s="217" t="s">
         <v>2649</v>
       </c>
-      <c r="J3" s="239" t="s">
+      <c r="J3" s="217" t="s">
         <v>2650</v>
       </c>
-      <c r="K3" s="239" t="s">
+      <c r="K3" s="217" t="s">
         <v>2651</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="218" t="s">
         <v>2652</v>
       </c>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="218" t="s">
         <v>2653</v>
       </c>
-      <c r="G4" s="240" t="s">
+      <c r="G4" s="218" t="s">
         <v>2652</v>
       </c>
-      <c r="H4" s="240" t="s">
+      <c r="H4" s="218" t="s">
         <v>2653</v>
       </c>
-      <c r="I4" s="241">
-        <v>1</v>
-      </c>
-      <c r="J4" s="241">
+      <c r="I4" s="219">
+        <v>1</v>
+      </c>
+      <c r="J4" s="219">
         <v>3</v>
       </c>
-      <c r="K4" s="241" t="str">
+      <c r="K4" s="219" t="str">
         <f>G4&amp;H4&amp;I4&amp;J4</f>
         <v>jcisp13</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="240" t="s">
+      <c r="B5" s="218" t="s">
         <v>2654</v>
       </c>
-      <c r="C5" s="240" t="s">
+      <c r="C5" s="218" t="s">
         <v>2655</v>
       </c>
-      <c r="G5" s="240" t="s">
+      <c r="G5" s="218" t="s">
         <v>2654</v>
       </c>
-      <c r="H5" s="240" t="s">
+      <c r="H5" s="218" t="s">
         <v>2655</v>
       </c>
-      <c r="I5" s="241">
+      <c r="I5" s="219">
         <v>4</v>
       </c>
-      <c r="J5" s="241">
-        <v>1</v>
-      </c>
-      <c r="K5" s="241" t="str">
+      <c r="J5" s="219">
+        <v>1</v>
+      </c>
+      <c r="K5" s="219" t="str">
         <f>G5&amp;H5&amp;I5&amp;J5</f>
         <v>jbayala41</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="240" t="s">
+      <c r="B6" s="218" t="s">
         <v>2656</v>
       </c>
-      <c r="C6" s="240" t="s">
+      <c r="C6" s="218" t="s">
         <v>2657</v>
       </c>
-      <c r="G6" s="240" t="s">
+      <c r="G6" s="218" t="s">
         <v>2656</v>
       </c>
-      <c r="H6" s="240" t="s">
+      <c r="H6" s="218" t="s">
         <v>2657</v>
       </c>
-      <c r="I6" s="241">
+      <c r="I6" s="219">
         <v>4</v>
       </c>
-      <c r="J6" s="241">
+      <c r="J6" s="219">
         <v>2</v>
       </c>
-      <c r="K6" s="241" t="str">
+      <c r="K6" s="219" t="str">
         <f>G6&amp;H6&amp;I6&amp;J6</f>
         <v>jrmall42</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="240" t="s">
+      <c r="B7" s="218" t="s">
         <v>2658</v>
       </c>
-      <c r="C7" s="240" t="s">
+      <c r="C7" s="218" t="s">
         <v>2659</v>
       </c>
-      <c r="G7" s="240" t="s">
+      <c r="G7" s="218" t="s">
         <v>2658</v>
       </c>
-      <c r="H7" s="240" t="s">
+      <c r="H7" s="218" t="s">
         <v>2659</v>
       </c>
-      <c r="I7" s="241">
+      <c r="I7" s="219">
         <v>3</v>
       </c>
-      <c r="J7" s="241">
+      <c r="J7" s="219">
         <v>4</v>
       </c>
-      <c r="K7" s="241" t="str">
+      <c r="K7" s="219" t="str">
         <f>G7&amp;H7&amp;I7&amp;J7</f>
         <v>ljhotel34</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="218" t="s">
         <v>2660</v>
       </c>
-      <c r="C8" s="240" t="s">
+      <c r="C8" s="218" t="s">
         <v>2661</v>
       </c>
-      <c r="G8" s="240" t="s">
+      <c r="G8" s="218" t="s">
         <v>2660</v>
       </c>
-      <c r="H8" s="240" t="s">
+      <c r="H8" s="218" t="s">
         <v>2661</v>
       </c>
-      <c r="I8" s="241">
+      <c r="I8" s="219">
         <v>5</v>
       </c>
-      <c r="J8" s="241">
+      <c r="J8" s="219">
         <v>3</v>
       </c>
-      <c r="K8" s="241" t="str">
+      <c r="K8" s="219" t="str">
         <f>G8&amp;H8&amp;I8&amp;J8</f>
         <v>rjretaurant53</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="217" t="s">
         <v>2647</v>
       </c>
-      <c r="C11" s="239" t="s">
+      <c r="C11" s="217" t="s">
         <v>2648</v>
       </c>
-      <c r="D11" s="239" t="s">
+      <c r="D11" s="217" t="s">
         <v>2662</v>
       </c>
-      <c r="G11" s="239" t="s">
+      <c r="G11" s="217" t="s">
         <v>2647</v>
       </c>
-      <c r="H11" s="239" t="s">
+      <c r="H11" s="217" t="s">
         <v>2648</v>
       </c>
-      <c r="I11" s="239" t="s">
+      <c r="I11" s="217" t="s">
         <v>2649</v>
       </c>
-      <c r="J11" s="239" t="s">
+      <c r="J11" s="217" t="s">
         <v>2650</v>
       </c>
-      <c r="K11" s="239" t="s">
+      <c r="K11" s="217" t="s">
         <v>2662</v>
       </c>
-      <c r="M11" s="243"/>
-      <c r="N11" s="243"/>
-      <c r="O11" s="243" t="s">
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11" t="s">
         <v>2664</v>
       </c>
-      <c r="P11" s="243"/>
-      <c r="Q11" s="243"/>
-      <c r="R11" s="243"/>
-      <c r="S11" s="243"/>
-      <c r="T11" s="243"/>
-      <c r="U11" s="243"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
@@ -39545,68 +39900,68 @@
       <c r="H12" s="9" t="s">
         <v>2661</v>
       </c>
-      <c r="I12" s="242">
+      <c r="I12" s="220">
         <v>5</v>
       </c>
-      <c r="J12" s="242">
+      <c r="J12" s="220">
         <v>3</v>
       </c>
       <c r="K12" s="156" t="b">
         <f>IFERROR(AND(G12=VLOOKUP(G12,$G$4:$G$8,1,0),H12=VLOOKUP(H12,$H$4:$H$8,1,0)),"NO")</f>
         <v>1</v>
       </c>
-      <c r="M12" s="243" t="s">
+      <c r="M12" t="s">
         <v>2663</v>
       </c>
-      <c r="N12" s="243"/>
-      <c r="O12" s="243"/>
-      <c r="P12" s="243"/>
-      <c r="Q12" s="243"/>
-      <c r="R12" s="243"/>
-      <c r="S12" s="243"/>
-      <c r="T12" s="243"/>
-      <c r="U12" s="243"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="G13" s="240" t="s">
+      <c r="G13" s="218" t="s">
         <v>2652</v>
       </c>
-      <c r="H13" s="240" t="s">
+      <c r="H13" s="218" t="s">
         <v>2653</v>
       </c>
-      <c r="I13" s="241">
-        <v>1</v>
-      </c>
-      <c r="J13" s="241">
+      <c r="I13" s="219">
+        <v>1</v>
+      </c>
+      <c r="J13" s="219">
         <v>3</v>
       </c>
       <c r="K13" s="156" t="b">
         <f t="shared" ref="K13:K14" si="0">IFERROR(AND(G13=VLOOKUP(G13,$G$4:$G$8,1,0),H13=VLOOKUP(H13,$H$4:$H$8,1,0)),"NO")</f>
         <v>1</v>
       </c>
-      <c r="M13" s="243" t="s">
+      <c r="M13" t="s">
         <v>2666</v>
       </c>
-      <c r="N13" s="243"/>
-      <c r="O13" s="243"/>
-      <c r="P13" s="243"/>
-      <c r="Q13" s="243"/>
-      <c r="R13" s="243"/>
-      <c r="S13" s="243"/>
-      <c r="T13" s="243"/>
-      <c r="U13" s="243"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="G14" s="240" t="s">
+      <c r="G14" s="218" t="s">
         <v>2656</v>
       </c>
-      <c r="H14" s="240" t="s">
+      <c r="H14" s="218" t="s">
         <v>2665</v>
       </c>
-      <c r="I14" s="241">
+      <c r="I14" s="219">
         <v>4</v>
       </c>
-      <c r="J14" s="241">
+      <c r="J14" s="219">
         <v>2</v>
       </c>
       <c r="K14" s="156" t="str">
@@ -39650,7 +40005,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="244" t="s">
+      <c r="B5" s="221" t="s">
         <v>2669</v>
       </c>
     </row>
@@ -39661,42 +40016,42 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G7" s="243"/>
-      <c r="H7" s="243" t="s">
+      <c r="G7"/>
+      <c r="H7" t="s">
         <v>2669</v>
       </c>
-      <c r="I7" s="243"/>
-      <c r="J7" s="243"/>
-      <c r="K7" s="243" t="s">
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" t="s">
         <v>2670</v>
       </c>
-      <c r="L7" s="243"/>
-      <c r="M7" s="243"/>
-      <c r="N7" s="243"/>
-      <c r="O7" s="243"/>
-      <c r="P7" s="243"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="155" t="s">
         <v>2670</v>
       </c>
-      <c r="D8" s="244" t="s">
+      <c r="D8" s="221" t="s">
         <v>2671</v>
       </c>
-      <c r="G8" s="243"/>
-      <c r="H8" s="243" t="s">
+      <c r="G8"/>
+      <c r="H8" t="s">
         <v>2679</v>
       </c>
-      <c r="I8" s="243"/>
-      <c r="J8" s="243"/>
-      <c r="K8" s="243" t="s">
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="s">
         <v>2680</v>
       </c>
-      <c r="L8" s="243"/>
-      <c r="M8" s="243"/>
-      <c r="N8" s="243"/>
-      <c r="O8" s="243"/>
-      <c r="P8" s="243"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="156" t="str">
@@ -39706,16 +40061,16 @@
       <c r="D9" s="155" t="s">
         <v>2672</v>
       </c>
-      <c r="G9" s="243"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="243"/>
-      <c r="J9" s="243"/>
-      <c r="K9" s="243"/>
-      <c r="L9" s="243"/>
-      <c r="M9" s="243"/>
-      <c r="N9" s="243"/>
-      <c r="O9" s="243"/>
-      <c r="P9" s="243"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="155" t="str">
@@ -39726,36 +40081,36 @@
         <f>REPLACE(B3,FIND(" ",B3),1,"^")</f>
         <v>Have^Fun With Excel &amp; Word</v>
       </c>
-      <c r="G10" s="243"/>
-      <c r="H10" s="243" t="s">
+      <c r="G10"/>
+      <c r="H10" t="s">
         <v>2675</v>
       </c>
-      <c r="I10" s="243"/>
-      <c r="J10" s="243"/>
-      <c r="K10" s="243"/>
-      <c r="L10" s="243"/>
-      <c r="M10" s="243"/>
-      <c r="N10" s="243"/>
-      <c r="O10" s="243"/>
-      <c r="P10" s="243"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="156"/>
       <c r="D11" s="155" t="s">
         <v>2673</v>
       </c>
-      <c r="G11" s="243"/>
-      <c r="H11" s="243" t="s">
+      <c r="G11"/>
+      <c r="H11" t="s">
         <v>2681</v>
       </c>
-      <c r="I11" s="243"/>
-      <c r="J11" s="243"/>
-      <c r="K11" s="243"/>
-      <c r="L11" s="243"/>
-      <c r="M11" s="243"/>
-      <c r="N11" s="243"/>
-      <c r="O11" s="243"/>
-      <c r="P11" s="243"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="155"/>
@@ -39763,36 +40118,36 @@
         <f>FIND("^", B9, FIND("^", B9, FIND("^", B9) + 1) + 1)</f>
         <v>14</v>
       </c>
-      <c r="G12" s="243"/>
-      <c r="H12" s="243"/>
-      <c r="I12" s="243"/>
-      <c r="J12" s="243" t="s">
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12" t="s">
         <v>2677</v>
       </c>
-      <c r="K12" s="243"/>
-      <c r="L12" s="243"/>
-      <c r="M12" s="243"/>
-      <c r="N12" s="243"/>
-      <c r="O12" s="243"/>
-      <c r="P12" s="243"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="156"/>
       <c r="D13" s="155" t="s">
         <v>2674</v>
       </c>
-      <c r="G13" s="243"/>
-      <c r="H13" s="243" t="s">
+      <c r="G13"/>
+      <c r="H13" t="s">
         <v>2682</v>
       </c>
-      <c r="I13" s="243"/>
-      <c r="J13" s="243"/>
-      <c r="K13" s="243"/>
-      <c r="L13" s="243"/>
-      <c r="M13" s="243"/>
-      <c r="N13" s="243"/>
-      <c r="O13" s="243"/>
-      <c r="P13" s="243"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="155" t="s">
@@ -39802,16 +40157,16 @@
         <f>RIGHT(B3, LEN(B3) - FIND(" ", B3))</f>
         <v>Fun With Excel &amp; Word</v>
       </c>
-      <c r="G14" s="243"/>
-      <c r="H14" s="243"/>
-      <c r="I14" s="243"/>
-      <c r="J14" s="243"/>
-      <c r="K14" s="243"/>
-      <c r="L14" s="243"/>
-      <c r="M14" s="243"/>
-      <c r="N14" s="243"/>
-      <c r="O14" s="243"/>
-      <c r="P14" s="243"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="156">
@@ -39821,20 +40176,20 @@
       <c r="D15" s="155" t="s">
         <v>2676</v>
       </c>
-      <c r="G15" s="243"/>
-      <c r="H15" s="243"/>
-      <c r="I15" s="243"/>
-      <c r="J15" s="243" t="s">
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" t="s">
         <v>2672</v>
       </c>
-      <c r="K15" s="243"/>
-      <c r="L15" s="243"/>
-      <c r="M15" s="243"/>
-      <c r="N15" s="243" t="s">
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15" t="s">
         <v>2673</v>
       </c>
-      <c r="O15" s="243"/>
-      <c r="P15" s="243"/>
+      <c r="O15"/>
+      <c r="P15"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="155" t="s">
@@ -39844,18 +40199,18 @@
         <f>FIND(" ",B3)</f>
         <v>5</v>
       </c>
-      <c r="G16" s="243"/>
-      <c r="H16" s="243"/>
-      <c r="I16" s="243"/>
-      <c r="J16" s="243" t="s">
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" t="s">
         <v>2683</v>
       </c>
-      <c r="K16" s="243"/>
-      <c r="L16" s="243"/>
-      <c r="M16" s="243"/>
-      <c r="N16" s="243"/>
-      <c r="O16" s="243"/>
-      <c r="P16" s="243"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="156" t="str">
@@ -39865,18 +40220,18 @@
       <c r="D17" s="155" t="s">
         <v>2678</v>
       </c>
-      <c r="G17" s="243"/>
-      <c r="H17" s="243"/>
-      <c r="I17" s="243"/>
-      <c r="J17" s="243"/>
-      <c r="K17" s="243"/>
-      <c r="L17" s="243" t="s">
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17" t="s">
         <v>2684</v>
       </c>
-      <c r="M17" s="243"/>
-      <c r="N17" s="243"/>
-      <c r="O17" s="243"/>
-      <c r="P17" s="243"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="156" t="str">
@@ -39887,84 +40242,84 @@
         <f>TRIM(MID(SUBSTITUTE(B3, " ", REPT(" ", LEN(B3))),(3-1)*LEN(B3)+1, LEN(B3)))</f>
         <v>With</v>
       </c>
-      <c r="G18" s="243"/>
-      <c r="H18" s="243"/>
-      <c r="I18" s="243"/>
-      <c r="J18" s="243"/>
-      <c r="K18" s="243"/>
-      <c r="L18" s="243"/>
-      <c r="M18" s="243"/>
-      <c r="N18" s="243"/>
-      <c r="O18" s="243"/>
-      <c r="P18" s="243"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G19" s="243"/>
-      <c r="H19" s="243"/>
-      <c r="I19" s="243"/>
-      <c r="J19" s="243" t="s">
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" t="s">
         <v>2676</v>
       </c>
-      <c r="K19" s="243"/>
-      <c r="L19" s="243"/>
-      <c r="M19" s="243"/>
-      <c r="N19" s="243"/>
-      <c r="O19" s="243"/>
-      <c r="P19" s="243"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G20" s="243"/>
-      <c r="H20" s="243"/>
-      <c r="I20" s="243"/>
-      <c r="J20" s="243" t="s">
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" t="s">
         <v>2685</v>
       </c>
-      <c r="K20" s="243"/>
-      <c r="L20" s="243"/>
-      <c r="M20" s="243"/>
-      <c r="N20" s="243"/>
-      <c r="O20" s="243"/>
-      <c r="P20" s="243"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G21" s="243"/>
-      <c r="H21" s="243"/>
-      <c r="I21" s="243"/>
-      <c r="J21" s="243" t="s">
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" t="s">
         <v>2678</v>
       </c>
-      <c r="K21" s="243"/>
-      <c r="L21" s="243"/>
-      <c r="M21" s="243"/>
-      <c r="N21" s="243"/>
-      <c r="O21" s="243"/>
-      <c r="P21" s="243"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G22" s="243"/>
-      <c r="H22" s="243"/>
-      <c r="I22" s="243"/>
-      <c r="J22" s="243"/>
-      <c r="K22" s="243"/>
-      <c r="L22" s="243"/>
-      <c r="M22" s="243"/>
-      <c r="N22" s="243"/>
-      <c r="O22" s="243"/>
-      <c r="P22" s="243"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G23" s="243" t="s">
+      <c r="G23" t="s">
         <v>2686</v>
       </c>
-      <c r="H23" s="243"/>
-      <c r="I23" s="243"/>
-      <c r="J23" s="243"/>
-      <c r="K23" s="243"/>
-      <c r="L23" s="243"/>
-      <c r="M23" s="243"/>
-      <c r="N23" s="243"/>
-      <c r="O23" s="243"/>
-      <c r="P23" s="243"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39974,13 +40329,89 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10856BB8-1E44-4699-8361-E6050FA46EEB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" style="244"/>
+    <col min="2" max="16384" width="9.21875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="244" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="244" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="244" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="244" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="244" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="244" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="244" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="244" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="245" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="244" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="245" t="s">
+        <v>2688</v>
+      </c>
+      <c r="F9" s="185">
+        <f>IF(E9="dataset1",VLOOKUP(F8,dataset1!C3:D13,2,0),IF(E9="dataset2",VLOOKUP(F8,dataset2!C3:D13,2,0),IF(E9="dataset3",VLOOKUP(F8,dataset3!C3:D13,2,0))))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="244" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8" xr:uid="{DA62FBFB-C7E7-4666-864D-623352830090}">
+      <formula1>$A$1:$A$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{C6BF2C31-DA87-4E47-BE0E-32E43038628F}">
+      <formula1>"dataset1,dataset2,dataset3"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -40007,10 +40438,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="218"/>
+      <c r="C3" s="223"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -40410,6 +40841,477 @@
       <formula1>$N$10:$N$12</formula1>
     </dataValidation>
   </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5B5ECF-F968-40EE-9A2A-52B0011FB83A}">
+  <dimension ref="C3:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="174" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D3" s="246" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="185" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="185" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="185" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="185" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="185" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="185" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="185">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="185" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="185">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="185">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="185" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="185">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC511B83-FBE4-4F24-BC02-B8DEC33F04DB}">
+  <dimension ref="C3:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="174" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D3" s="246" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="185" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="185" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="185">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="185" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="185">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="185" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="185">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="185" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="185">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="185" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="185">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="185" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="185">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="185">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="185">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="185" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="185">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CF36A6-7861-412E-A0E8-734E33315F50}">
+  <dimension ref="C3:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="174" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D3" s="246" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="185" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="185">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="185" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="185">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="185" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="185">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="185" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="185">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="185" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="185">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="185" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="185">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="185" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="185">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="185">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="185">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="185" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="185">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EFC917-F403-431A-8573-282B75F319D4}">
+  <dimension ref="C3:P10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="131"/>
+      <c r="D4" s="247" t="s">
+        <v>2689</v>
+      </c>
+      <c r="E4" s="248">
+        <v>48</v>
+      </c>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C6" s="131"/>
+      <c r="D6" s="247" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E6" s="250">
+        <v>124.8</v>
+      </c>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C8" s="131"/>
+      <c r="D8" s="247" t="s">
+        <v>2691</v>
+      </c>
+      <c r="E8" s="249">
+        <f>E6/E4</f>
+        <v>2.6</v>
+      </c>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="131"/>
+      <c r="P8" s="131"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="131"/>
+      <c r="P9" s="131"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="131"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -63712,15 +64614,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="224" t="s">
         <v>1668</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="221"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226"/>
       <c r="H1" s="53"/>
       <c r="I1" s="53"/>
       <c r="J1" s="53"/>
@@ -63728,13 +64630,13 @@
       <c r="L1" s="53"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="222"/>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="224"/>
+      <c r="A2" s="227"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="229"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
       <c r="J2" s="53"/>
